--- a/dist/data/profiles/xlsx/bluff/profile 23-5 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 23-5 graph.xlsx
@@ -6345,11 +6345,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63915285"/>
-        <c:axId val="52613571"/>
+        <c:axId val="79701723"/>
+        <c:axId val="59741938"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63915285"/>
+        <c:axId val="79701723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,12 +6384,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52613571"/>
+        <c:crossAx val="59741938"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52613571"/>
+        <c:axId val="59741938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6433,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63915285"/>
+        <c:crossAx val="79701723"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
